--- a/resources/WC-1993/WC-1993.xlsx
+++ b/resources/WC-1993/WC-1993.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cp\Documents\GitHub\DecatlonEstadistics\resources\WC-1993\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C4D882-959B-42DF-93F0-105FDCAE3F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A027938-28CD-4B94-AF77-F8A18FDE782E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{024D25C4-56D8-4A97-A6FB-E7A573CE9173}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{024D25C4-56D8-4A97-A6FB-E7A573CE9173}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="mm:ss.00"/>
+    <numFmt numFmtId="164" formatCode="mm:ss.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +960,7 @@
         <v>8817</v>
       </c>
       <c r="E2" s="9">
-        <f>ROUND((POWER((F2/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" ref="E2:E23" si="0">ROUND((POWER((F2/C$28),1/E$28)-D$28)*-1,2)</f>
         <v>10.57</v>
       </c>
       <c r="F2" s="10">
@@ -988,14 +988,14 @@
         <v>831</v>
       </c>
       <c r="M2" s="9">
-        <f>ROUND((POWER((N2/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" ref="M2:M23" si="1">ROUND((POWER((N2/C$29),1/E$29)-D$29)*-1,2)</f>
         <v>47.48</v>
       </c>
       <c r="N2" s="10">
         <v>935</v>
       </c>
       <c r="O2" s="10">
-        <f>ROUND((POWER((P2/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" ref="O2:O23" si="2">ROUND((POWER((P2/C$30),1/E$30)-D$30)*-1,2)</f>
         <v>14.09</v>
       </c>
       <c r="P2" s="10">
@@ -1023,7 +1023,7 @@
         <v>776</v>
       </c>
       <c r="W2" s="11">
-        <f>(POWER((X2/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" ref="W2:W23" si="3">(POWER((X2/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
         <v>3.2422023670196074E-3</v>
       </c>
       <c r="X2" s="10">
@@ -1044,70 +1044,70 @@
         <v>8724</v>
       </c>
       <c r="E3" s="2">
-        <f>ROUND((POWER((F3/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.72</v>
       </c>
       <c r="F3" s="1">
         <v>924</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G23" si="0">ROUND((POWER((H3/C$34),1/E$34)+D$34)/100,2)</f>
+        <f t="shared" ref="G3:G23" si="4">ROUND((POWER((H3/C$34),1/E$34)+D$34)/100,2)</f>
         <v>7.05</v>
       </c>
       <c r="H3" s="1">
         <v>826</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I23" si="1">ROUND((POWER((J3/C$35),1/E$35)+D$35)+0.01,2)</f>
+        <f t="shared" ref="I3:I23" si="5">ROUND((POWER((J3/C$35),1/E$35)+D$35)+0.01,2)</f>
         <v>15.49</v>
       </c>
       <c r="J3" s="1">
         <v>820</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" ref="K3:K23" si="2">ROUND((POWER((L3/C$32),1/E$32)+D$32)/100,2)</f>
+        <f t="shared" ref="K3:K23" si="6">ROUND((POWER((L3/C$32),1/E$32)+D$32)/100,2)</f>
         <v>2.09</v>
       </c>
       <c r="L3" s="1">
         <v>887</v>
       </c>
       <c r="M3" s="2">
-        <f>ROUND((POWER((N3/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>47.64</v>
       </c>
       <c r="N3" s="1">
         <v>927</v>
       </c>
       <c r="O3" s="1">
-        <f>ROUND((POWER((P3/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>13.57</v>
       </c>
       <c r="P3" s="1">
         <v>1031</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q23" si="3">ROUND((POWER((R3/C$36),1/E$36)+D$36),2)</f>
+        <f t="shared" ref="Q3:Q23" si="7">ROUND((POWER((R3/C$36),1/E$36)+D$36),2)</f>
         <v>49.24</v>
       </c>
       <c r="R3" s="1">
         <v>855</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S23" si="4">ROUND((POWER((T3/C$33),1/E$33)+D$33)/100,2)</f>
+        <f t="shared" ref="S3:S23" si="8">ROUND((POWER((T3/C$33),1/E$33)+D$33)/100,2)</f>
         <v>5.3</v>
       </c>
       <c r="T3" s="1">
         <v>1004</v>
       </c>
       <c r="U3" s="10">
-        <f t="shared" ref="U3:U23" si="5">ROUND((POWER((V3/C$37),1/E$37)+D$37)+0.06,2)</f>
+        <f t="shared" ref="U3:U23" si="9">ROUND((POWER((V3/C$37),1/E$37)+D$37)+0.06,2)</f>
         <v>61.9</v>
       </c>
       <c r="V3" s="1">
         <v>766</v>
       </c>
       <c r="W3" s="8">
-        <f>(POWER((X3/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.2348566247321071E-3</v>
       </c>
       <c r="X3" s="1">
@@ -1128,70 +1128,70 @@
         <v>8548</v>
       </c>
       <c r="E4" s="2">
-        <f>ROUND((POWER((F4/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.57</v>
       </c>
       <c r="F4" s="1">
         <v>959</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.57</v>
       </c>
       <c r="H4" s="1">
         <v>952</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.45</v>
       </c>
       <c r="J4" s="1">
         <v>817</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.15</v>
       </c>
       <c r="L4" s="1">
         <v>944</v>
       </c>
       <c r="M4" s="2">
-        <f>ROUND((POWER((N4/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>47.75</v>
       </c>
       <c r="N4" s="1">
         <v>922</v>
       </c>
       <c r="O4" s="1">
-        <f>ROUND((POWER((P4/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.63</v>
       </c>
       <c r="P4" s="1">
         <v>895</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.71</v>
       </c>
       <c r="R4" s="1">
         <v>782</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="T4" s="1">
         <v>790</v>
       </c>
       <c r="U4" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>61.23</v>
       </c>
       <c r="V4" s="1">
         <v>756</v>
       </c>
       <c r="W4" s="8">
-        <f>(POWER((X4/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.149977288694939E-3</v>
       </c>
       <c r="X4" s="1">
@@ -1212,70 +1212,70 @@
         <v>8500</v>
       </c>
       <c r="E5" s="2">
-        <f>ROUND((POWER((F5/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.22</v>
       </c>
       <c r="F5" s="1">
         <v>812</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.63</v>
       </c>
       <c r="H5" s="1">
         <v>967</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15.72</v>
       </c>
       <c r="J5" s="1">
         <v>834</v>
       </c>
       <c r="K5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.15</v>
       </c>
       <c r="L5" s="1">
         <v>944</v>
       </c>
       <c r="M5" s="2">
-        <f>ROUND((POWER((N5/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>48.78</v>
       </c>
       <c r="N5" s="1">
         <v>872</v>
       </c>
       <c r="O5" s="1">
-        <f>ROUND((POWER((P5/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>15.29</v>
       </c>
       <c r="P5" s="1">
         <v>815</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>46.92</v>
       </c>
       <c r="R5" s="1">
         <v>807</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="T5" s="1">
         <v>849</v>
       </c>
       <c r="U5" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>65.33</v>
       </c>
       <c r="V5" s="1">
         <v>818</v>
       </c>
       <c r="W5" s="8">
-        <f>(POWER((X5/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0606644962808491E-3</v>
       </c>
       <c r="X5" s="1">
@@ -1296,70 +1296,70 @@
         <v>8444</v>
       </c>
       <c r="E6" s="2">
-        <f>ROUND((POWER((F6/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.94</v>
       </c>
       <c r="F6" s="1">
         <v>874</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
       <c r="H6" s="1">
         <v>862</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.06</v>
       </c>
       <c r="J6" s="1">
         <v>732</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.94</v>
       </c>
       <c r="L6" s="1">
         <v>749</v>
       </c>
       <c r="M6" s="2">
-        <f>ROUND((POWER((N6/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>48.14</v>
       </c>
       <c r="N6" s="1">
         <v>903</v>
       </c>
       <c r="O6" s="1">
-        <f>ROUND((POWER((P6/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
       <c r="P6" s="1">
         <v>924</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.71</v>
       </c>
       <c r="R6" s="1">
         <v>782</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="T6" s="1">
         <v>1035</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>62.23</v>
       </c>
       <c r="V6" s="1">
         <v>771</v>
       </c>
       <c r="W6" s="8">
-        <f>(POWER((X6/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0093759613493893E-3</v>
       </c>
       <c r="X6" s="1">
@@ -1380,70 +1380,70 @@
         <v>8398</v>
       </c>
       <c r="E7" s="2">
-        <f>ROUND((POWER((F7/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="F7" s="1">
         <v>906</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="H7" s="1">
         <v>935</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.47</v>
       </c>
       <c r="J7" s="1">
         <v>757</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.09</v>
       </c>
       <c r="L7" s="1">
         <v>887</v>
       </c>
       <c r="M7" s="2">
-        <f>ROUND((POWER((N7/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>47.93</v>
       </c>
       <c r="N7" s="1">
         <v>913</v>
       </c>
       <c r="O7" s="1">
-        <f>ROUND((POWER((P7/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.36</v>
       </c>
       <c r="P7" s="1">
         <v>929</v>
       </c>
       <c r="Q7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.72</v>
       </c>
       <c r="R7" s="1">
         <v>700</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T7" s="1">
         <v>910</v>
       </c>
       <c r="U7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>56.97</v>
       </c>
       <c r="V7" s="1">
         <v>692</v>
       </c>
       <c r="W7" s="8">
-        <f>(POWER((X7/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0831698262798937E-3</v>
       </c>
       <c r="X7" s="1">
@@ -1464,70 +1464,70 @@
         <v>8324</v>
       </c>
       <c r="E8" s="2">
-        <f>ROUND((POWER((F8/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.83</v>
       </c>
       <c r="F8" s="1">
         <v>899</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.52</v>
       </c>
       <c r="H8" s="1">
         <v>940</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.87</v>
       </c>
       <c r="J8" s="1">
         <v>720</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="L8" s="1">
         <v>831</v>
       </c>
       <c r="M8" s="2">
-        <f>ROUND((POWER((N8/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>48.41</v>
       </c>
       <c r="N8" s="1">
         <v>890</v>
       </c>
       <c r="O8" s="1">
-        <f>ROUND((POWER((P8/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>13.99</v>
       </c>
       <c r="P8" s="1">
         <v>976</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.62</v>
       </c>
       <c r="R8" s="1">
         <v>698</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="T8" s="1">
         <v>880</v>
       </c>
       <c r="U8" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>57.71</v>
       </c>
       <c r="V8" s="1">
         <v>703</v>
       </c>
       <c r="W8" s="8">
-        <f>(POWER((X8/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0520544258877155E-3</v>
       </c>
       <c r="X8" s="1">
@@ -1548,70 +1548,70 @@
         <v>8237</v>
       </c>
       <c r="E9" s="2">
-        <f>ROUND((POWER((F9/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.11</v>
       </c>
       <c r="F9" s="1">
         <v>836</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.72</v>
       </c>
       <c r="H9" s="1">
         <v>748</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16.989999999999998</v>
       </c>
       <c r="J9" s="1">
         <v>912</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.94</v>
       </c>
       <c r="L9" s="1">
         <v>749</v>
       </c>
       <c r="M9" s="2">
-        <f>ROUND((POWER((N9/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.83</v>
       </c>
       <c r="N9" s="1">
         <v>823</v>
       </c>
       <c r="O9" s="1">
-        <f>ROUND((POWER((P9/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.51</v>
       </c>
       <c r="P9" s="1">
         <v>910</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>47.89</v>
       </c>
       <c r="R9" s="1">
         <v>827</v>
       </c>
       <c r="S9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T9" s="1">
         <v>910</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>64.540000000000006</v>
       </c>
       <c r="V9" s="1">
         <v>806</v>
       </c>
       <c r="W9" s="8">
-        <f>(POWER((X9/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.1767865413286061E-3</v>
       </c>
       <c r="X9" s="1">
@@ -1632,70 +1632,70 @@
         <v>8075</v>
       </c>
       <c r="E10" s="2">
-        <f>ROUND((POWER((F10/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.16</v>
       </c>
       <c r="F10" s="1">
         <v>825</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
       <c r="H10" s="1">
         <v>910</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.34</v>
       </c>
       <c r="J10" s="1">
         <v>749</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L10" s="1">
         <v>803</v>
       </c>
       <c r="M10" s="2">
-        <f>ROUND((POWER((N10/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>50.18</v>
       </c>
       <c r="N10" s="1">
         <v>807</v>
       </c>
       <c r="O10" s="1">
-        <f>ROUND((POWER((P10/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.51</v>
       </c>
       <c r="P10" s="1">
         <v>910</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>44.69</v>
       </c>
       <c r="R10" s="1">
         <v>761</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T10" s="1">
         <v>910</v>
       </c>
       <c r="U10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>62.09</v>
       </c>
       <c r="V10" s="1">
         <v>769</v>
       </c>
       <c r="W10" s="8">
-        <f>(POWER((X10/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.3338554899194281E-3</v>
       </c>
       <c r="X10" s="1">
@@ -1716,70 +1716,70 @@
         <v>8032</v>
       </c>
       <c r="E11" s="2">
-        <f>ROUND((POWER((F11/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.93</v>
       </c>
       <c r="F11" s="1">
         <v>876</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
       <c r="H11" s="1">
         <v>862</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.7</v>
       </c>
       <c r="J11" s="1">
         <v>771</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L11" s="1">
         <v>803</v>
       </c>
       <c r="M11" s="2">
-        <f>ROUND((POWER((N11/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.42</v>
       </c>
       <c r="N11" s="1">
         <v>842</v>
       </c>
       <c r="O11" s="1">
-        <f>ROUND((POWER((P11/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.21</v>
       </c>
       <c r="P11" s="1">
         <v>948</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.65</v>
       </c>
       <c r="R11" s="1">
         <v>719</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="T11" s="1">
         <v>760</v>
       </c>
       <c r="U11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>61.3</v>
       </c>
       <c r="V11" s="1">
         <v>757</v>
       </c>
       <c r="W11" s="8">
-        <f>(POWER((X11/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.2165781394796196E-3</v>
       </c>
       <c r="X11" s="1">
@@ -1800,70 +1800,70 @@
         <v>8000</v>
       </c>
       <c r="E12" s="2">
-        <f>ROUND((POWER((F12/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.03</v>
       </c>
       <c r="F12" s="1">
         <v>854</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.3</v>
       </c>
       <c r="H12" s="1">
         <v>886</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.84</v>
       </c>
       <c r="J12" s="1">
         <v>780</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.94</v>
       </c>
       <c r="L12" s="1">
         <v>749</v>
       </c>
       <c r="M12" s="2">
-        <f>ROUND((POWER((N12/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>50.77</v>
       </c>
       <c r="N12" s="1">
         <v>780</v>
       </c>
       <c r="O12" s="1">
-        <f>ROUND((POWER((P12/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.66</v>
       </c>
       <c r="P12" s="1">
         <v>891</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43.23</v>
       </c>
       <c r="R12" s="1">
         <v>731</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T12" s="1">
         <v>910</v>
       </c>
       <c r="U12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>63.95</v>
       </c>
       <c r="V12" s="1">
         <v>797</v>
       </c>
       <c r="W12" s="8">
-        <f>(POWER((X12/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.35104080441583E-3</v>
       </c>
       <c r="X12" s="1">
@@ -1884,70 +1884,70 @@
         <v>7911</v>
       </c>
       <c r="E13" s="2">
-        <f>ROUND((POWER((F13/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.41</v>
       </c>
       <c r="F13" s="1">
         <v>771</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.31</v>
       </c>
       <c r="H13" s="1">
         <v>888</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11.98</v>
       </c>
       <c r="J13" s="1">
         <v>605</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.12</v>
       </c>
       <c r="L13" s="1">
         <v>915</v>
       </c>
       <c r="M13" s="2">
-        <f>ROUND((POWER((N13/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="N13" s="1">
         <v>862</v>
       </c>
       <c r="O13" s="1">
-        <f>ROUND((POWER((P13/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.67</v>
       </c>
       <c r="P13" s="1">
         <v>890</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40.39</v>
       </c>
       <c r="R13" s="1">
         <v>673</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="T13" s="1">
         <v>790</v>
       </c>
       <c r="U13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>57.51</v>
       </c>
       <c r="V13" s="1">
         <v>700</v>
       </c>
       <c r="W13" s="8">
-        <f>(POWER((X13/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0009130784509476E-3</v>
       </c>
       <c r="X13" s="1">
@@ -1968,70 +1968,70 @@
         <v>7838</v>
       </c>
       <c r="E14" s="2">
-        <f>ROUND((POWER((F14/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>10.95</v>
       </c>
       <c r="F14" s="1">
         <v>872</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.05</v>
       </c>
       <c r="H14" s="1">
         <v>826</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.44</v>
       </c>
       <c r="J14" s="1">
         <v>755</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.76</v>
       </c>
       <c r="L14" s="1">
         <v>593</v>
       </c>
       <c r="M14" s="2">
-        <f>ROUND((POWER((N14/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>48.39</v>
       </c>
       <c r="N14" s="1">
         <v>891</v>
       </c>
       <c r="O14" s="1">
-        <f>ROUND((POWER((P14/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.62</v>
       </c>
       <c r="P14" s="1">
         <v>897</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.69</v>
       </c>
       <c r="R14" s="1">
         <v>720</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="T14" s="1">
         <v>819</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>64.81</v>
       </c>
       <c r="V14" s="1">
         <v>810</v>
       </c>
       <c r="W14" s="8">
-        <f>(POWER((X14/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.2885705944911297E-3</v>
       </c>
       <c r="X14" s="1">
@@ -2052,70 +2052,70 @@
         <v>7783</v>
       </c>
       <c r="E15" s="2">
-        <f>ROUND((POWER((F15/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.36</v>
       </c>
       <c r="F15" s="1">
         <v>782</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.15</v>
       </c>
       <c r="H15" s="1">
         <v>850</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.49</v>
       </c>
       <c r="J15" s="1">
         <v>697</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.97</v>
       </c>
       <c r="L15" s="1">
         <v>776</v>
       </c>
       <c r="M15" s="2">
-        <f>ROUND((POWER((N15/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>51.75</v>
       </c>
       <c r="N15" s="1">
         <v>736</v>
       </c>
       <c r="O15" s="1">
-        <f>ROUND((POWER((P15/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>15.11</v>
       </c>
       <c r="P15" s="1">
         <v>837</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.47</v>
       </c>
       <c r="R15" s="1">
         <v>695</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="T15" s="1">
         <v>941</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>64.010000000000005</v>
       </c>
       <c r="V15" s="1">
         <v>798</v>
       </c>
       <c r="W15" s="8">
-        <f>(POWER((X15/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.2588032368503421E-3</v>
       </c>
       <c r="X15" s="1">
@@ -2136,70 +2136,70 @@
         <v>7734</v>
       </c>
       <c r="E16" s="2">
-        <f>ROUND((POWER((F16/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.09</v>
       </c>
       <c r="F16" s="1">
         <v>841</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.26</v>
       </c>
       <c r="H16" s="1">
         <v>876</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.08</v>
       </c>
       <c r="J16" s="1">
         <v>733</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="L16" s="1">
         <v>831</v>
       </c>
       <c r="M16" s="2">
-        <f>ROUND((POWER((N16/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.81</v>
       </c>
       <c r="N16" s="1">
         <v>824</v>
       </c>
       <c r="O16" s="1">
-        <f>ROUND((POWER((P16/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.64</v>
       </c>
       <c r="P16" s="1">
         <v>894</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>39.75</v>
       </c>
       <c r="R16" s="1">
         <v>660</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="T16" s="1">
         <v>941</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43.04</v>
       </c>
       <c r="V16" s="1">
         <v>486</v>
       </c>
       <c r="W16" s="8">
-        <f>(POWER((X16/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.301698763482957E-3</v>
       </c>
       <c r="X16" s="1">
@@ -2220,70 +2220,70 @@
         <v>7734</v>
       </c>
       <c r="E17" s="2">
-        <f>ROUND((POWER((F17/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.32</v>
       </c>
       <c r="F17" s="1">
         <v>791</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.15</v>
       </c>
       <c r="H17" s="1">
         <v>850</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.96</v>
       </c>
       <c r="J17" s="1">
         <v>665</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.97</v>
       </c>
       <c r="L17" s="1">
         <v>776</v>
       </c>
       <c r="M17" s="2">
-        <f>ROUND((POWER((N17/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>50.57</v>
       </c>
       <c r="N17" s="1">
         <v>789</v>
       </c>
       <c r="O17" s="1">
-        <f>ROUND((POWER((P17/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.67</v>
       </c>
       <c r="P17" s="1">
         <v>890</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>39.11</v>
       </c>
       <c r="R17" s="1">
         <v>647</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T17" s="1">
         <v>910</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>57.17</v>
       </c>
       <c r="V17" s="1">
         <v>695</v>
       </c>
       <c r="W17" s="8">
-        <f>(POWER((X17/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.1678217000017002E-3</v>
       </c>
       <c r="X17" s="1">
@@ -2304,70 +2304,70 @@
         <v>7726</v>
       </c>
       <c r="E18" s="2">
-        <f>ROUND((POWER((F18/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.12</v>
       </c>
       <c r="F18" s="1">
         <v>834</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.08</v>
       </c>
       <c r="H18" s="1">
         <v>833</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.36</v>
       </c>
       <c r="J18" s="1">
         <v>689</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.94</v>
       </c>
       <c r="L18" s="1">
         <v>749</v>
       </c>
       <c r="M18" s="2">
-        <f>ROUND((POWER((N18/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>48.72</v>
       </c>
       <c r="N18" s="1">
         <v>875</v>
       </c>
       <c r="O18" s="1">
-        <f>ROUND((POWER((P18/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.6</v>
       </c>
       <c r="P18" s="1">
         <v>899</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40.98</v>
       </c>
       <c r="R18" s="1">
         <v>685</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="T18" s="1">
         <v>760</v>
       </c>
       <c r="U18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>51.07</v>
       </c>
       <c r="V18" s="1">
         <v>604</v>
       </c>
       <c r="W18" s="8">
-        <f>(POWER((X18/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.0332002870390126E-3</v>
       </c>
       <c r="X18" s="1">
@@ -2388,70 +2388,70 @@
         <v>7547</v>
       </c>
       <c r="E19" s="2">
-        <f>ROUND((POWER((F19/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.16</v>
       </c>
       <c r="F19" s="1">
         <v>825</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.88</v>
       </c>
       <c r="H19" s="1">
         <v>785</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.13</v>
       </c>
       <c r="J19" s="1">
         <v>614</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.15</v>
       </c>
       <c r="L19" s="1">
         <v>944</v>
       </c>
       <c r="M19" s="2">
-        <f>ROUND((POWER((N19/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.1</v>
       </c>
       <c r="N19" s="1">
         <v>857</v>
       </c>
       <c r="O19" s="1">
-        <f>ROUND((POWER((P19/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.62</v>
       </c>
       <c r="P19" s="1">
         <v>896</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.83</v>
       </c>
       <c r="R19" s="1">
         <v>621</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="T19" s="1">
         <v>790</v>
       </c>
       <c r="U19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>49.17</v>
       </c>
       <c r="V19" s="1">
         <v>576</v>
       </c>
       <c r="W19" s="8">
-        <f>(POWER((X19/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.3186739673959171E-3</v>
       </c>
       <c r="X19" s="1">
@@ -2472,70 +2472,70 @@
         <v>7481</v>
       </c>
       <c r="E20" s="2">
-        <f>ROUND((POWER((F20/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
       <c r="F20" s="1">
         <v>786</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.07</v>
       </c>
       <c r="H20" s="1">
         <v>830</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.9</v>
       </c>
       <c r="J20" s="1">
         <v>722</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.06</v>
       </c>
       <c r="L20" s="1">
         <v>859</v>
       </c>
       <c r="M20" s="2">
-        <f>ROUND((POWER((N20/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>50.35</v>
       </c>
       <c r="N20" s="1">
         <v>799</v>
       </c>
       <c r="O20" s="1">
-        <f>ROUND((POWER((P20/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>15.11</v>
       </c>
       <c r="P20" s="1">
         <v>837</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="R20" s="1">
         <v>665</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="T20" s="1">
         <v>731</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>54.09</v>
       </c>
       <c r="V20" s="1">
         <v>649</v>
       </c>
       <c r="W20" s="8">
-        <f>(POWER((X20/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.3877003717892296E-3</v>
       </c>
       <c r="X20" s="1">
@@ -2556,70 +2556,70 @@
         <v>7140</v>
       </c>
       <c r="E21" s="2">
-        <f>ROUND((POWER((F21/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.3</v>
       </c>
       <c r="F21" s="1">
         <v>795</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.03</v>
       </c>
       <c r="H21" s="1">
         <v>821</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12.39</v>
       </c>
       <c r="J21" s="1">
         <v>630</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.97</v>
       </c>
       <c r="L21" s="1">
         <v>776</v>
       </c>
       <c r="M21" s="2">
-        <f>ROUND((POWER((N21/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.7</v>
       </c>
       <c r="N21" s="1">
         <v>829</v>
       </c>
       <c r="O21" s="1">
-        <f>ROUND((POWER((P21/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.62</v>
       </c>
       <c r="P21" s="1">
         <v>897</v>
       </c>
       <c r="Q21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.270000000000003</v>
       </c>
       <c r="R21" s="1">
         <v>630</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="T21" s="1">
         <v>731</v>
       </c>
       <c r="U21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43.46</v>
       </c>
       <c r="V21" s="1">
         <v>492</v>
       </c>
       <c r="W21" s="8">
-        <f>(POWER((X21/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.5152720801767128E-3</v>
       </c>
       <c r="X21" s="1">
@@ -2640,70 +2640,70 @@
         <v>6912</v>
       </c>
       <c r="E22" s="2">
-        <f>ROUND((POWER((F22/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.24</v>
       </c>
       <c r="F22" s="1">
         <v>808</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13.24</v>
       </c>
       <c r="J22" s="1">
         <v>682</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L22" s="1">
         <v>803</v>
       </c>
       <c r="M22" s="2">
-        <f>ROUND((POWER((N22/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>49.61</v>
       </c>
       <c r="N22" s="1">
         <v>833</v>
       </c>
       <c r="O22" s="1">
-        <f>ROUND((POWER((P22/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>14.53</v>
       </c>
       <c r="P22" s="1">
         <v>908</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.03</v>
       </c>
       <c r="R22" s="1">
         <v>768</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="T22" s="1">
         <v>819</v>
       </c>
       <c r="U22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>57.77</v>
       </c>
       <c r="V22" s="1">
         <v>704</v>
       </c>
       <c r="W22" s="8">
-        <f>(POWER((X22/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.4189852888821017E-3</v>
       </c>
       <c r="X22" s="1">
@@ -2724,70 +2724,70 @@
         <v>6632</v>
       </c>
       <c r="E23" s="2">
-        <f>ROUND((POWER((F23/C$28),1/E$28)-D$28)*-1,2)</f>
+        <f t="shared" si="0"/>
         <v>11.66</v>
       </c>
       <c r="F23" s="1">
         <v>719</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.73</v>
       </c>
       <c r="H23" s="1">
         <v>750</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14.21</v>
       </c>
       <c r="J23" s="1">
         <v>741</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.94</v>
       </c>
       <c r="L23" s="1">
         <v>749</v>
       </c>
       <c r="M23" s="2">
-        <f>ROUND((POWER((N23/C$29),1/E$29)-D$29)*-1,2)</f>
+        <f t="shared" si="1"/>
         <v>51.3</v>
       </c>
       <c r="N23" s="1">
         <v>756</v>
       </c>
       <c r="O23" s="1">
-        <f>ROUND((POWER((P23/C$30),1/E$30)-D$30)*-1,2)</f>
+        <f t="shared" si="2"/>
         <v>15.36</v>
       </c>
       <c r="P23" s="1">
         <v>807</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.37</v>
       </c>
       <c r="R23" s="1">
         <v>775</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>55.57</v>
       </c>
       <c r="V23" s="1">
         <v>671</v>
       </c>
       <c r="W23" s="8">
-        <f>(POWER((X23/C$31),1/E$31)-D$31)*-1/(24*60*60)</f>
+        <f t="shared" si="3"/>
         <v>3.2717858715353761E-3</v>
       </c>
       <c r="X23" s="1">
